--- a/participants/participant_19/participant_19_task_orders.xlsx
+++ b/participants/participant_19/participant_19_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730624684653" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730644168565" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730644178596" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730644648244" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730645268602" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911773447845" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911834386508" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911834416542" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911835196517" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911835946493" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730624304664.csv</t>
+          <t>go_stims-16502911773017745.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730624514658.csv</t>
+          <t>GNG_stims-16502911773267658.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730624524662.csv</t>
+          <t>go_stims-16502911773277676.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730624674656.csv</t>
+          <t>GNG_stims-16502911773437765.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730629138575.csv</t>
+          <t>OB-16502911791717668.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16498730634998262.csv</t>
+          <t>ZB-match_0-16502911777737684.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730636348598.csv</t>
+          <t>TB-16502911834116452.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1649873063601826.csv</t>
+          <t>ZB-match_6-16502911775067704.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730644048557.csv</t>
+          <t>TB-16502911824367692.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1649873064216862.csv</t>
+          <t>TB-16502911819667675.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498730626668606.csv</t>
+          <t>OB-16502911801957664.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498730631918545.csv</t>
+          <t>ZB-match_7-1650291177844772.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-16498730627868235.csv</t>
+          <t>OB-16502911795717752.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873064432859.csv</t>
+          <t>MM_stims-16502911834706507.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873064419825.csv</t>
+          <t>ZM_stims-1650291183444652.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730644488268.csv</t>
+          <t>MM_stims-16502911835026646.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730644338255.csv</t>
+          <t>ZM_stims-16502911834716532.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-164987306446383.csv</t>
+          <t>MM_stims-16502911835176597.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730644508252.csv</t>
+          <t>ZM_stims-16502911835046518.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730644948595.csv</t>
+          <t>SAT_stims-16502911835496495.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730644788582.csv</t>
+          <t>vSAT_stims-16502911835646522.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730645108597.csv</t>
+          <t>SAT_stims-1650291183524656.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730644668624.csv</t>
+          <t>vSAT_stims-16502911835786524.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_task_orders.xlsx
+++ b/participants/participant_19/participant_19_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911773447845" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911834386508" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911834416542" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911835196517" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911835946493" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778195466595" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778212398808" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477821241881" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778212888823" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778213679123" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911773017745.csv</t>
+          <t>go_stims-16504778195086646.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911773267658.csv</t>
+          <t>GNG_stims-16504778195296962.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911773277676.csv</t>
+          <t>go_stims-16504778195316596.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911773437765.csv</t>
+          <t>GNG_stims-16504778195456955.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502911791717668.csv</t>
+          <t>ZB-match_5-16504778197766976.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502911777737684.csv</t>
+          <t>TB-16504778212268782.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502911834116452.csv</t>
+          <t>OB-16504778209119103.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911775067704.csv</t>
+          <t>OB-1650477820257876.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502911824367692.csv</t>
+          <t>TB-16504778211318781.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16502911819667675.csv</t>
+          <t>TB-16504778209969108.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911801957664.csv</t>
+          <t>OB-16504778202096612.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_7-1650291177844772.csv</t>
+          <t>ZB-match_4-16504778200026975.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502911795717752.csv</t>
+          <t>ZB-match_7-16504778197316608.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911834706507.csv</t>
+          <t>MM_stims-16504778212558823.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291183444652.csv</t>
+          <t>ZM_stims-16504778212438774.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911835026646.csv</t>
+          <t>MM_stims-16504778212719107.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911834716532.csv</t>
+          <t>ZM_stims-16504778212568784.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911835176597.csv</t>
+          <t>MM_stims-16504778212879114.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911835046518.csv</t>
+          <t>ZM_stims-16504778212728767.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911835496495.csv</t>
+          <t>vSAT_stims-16504778213528774.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911835646522.csv</t>
+          <t>vSAT_stims-16504778213358777.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291183524656.csv</t>
+          <t>SAT_stims-16504778212958808.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911835786524.csv</t>
+          <t>SAT_stims-16504778213199117.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_task_orders.xlsx
+++ b/participants/participant_19/participant_19_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778195466595" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778212398808" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477821241881" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778212888823" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778213679123" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961086022134" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961113303747" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961113303747" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961113783798" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650996111442379" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778195086646.csv</t>
+          <t>go_stims-1650996108570213.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778195296962.csv</t>
+          <t>GNG_stims-1650996108586251.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778195316596.csv</t>
+          <t>go_stims-1650996108586251.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778195456955.csv</t>
+          <t>GNG_stims-16509961086022134.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778197766976.csv</t>
+          <t>ZB-match_9-16509961087622132.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504778212268782.csv</t>
+          <t>OB-16509961094023752.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778209119103.csv</t>
+          <t>TB-16509961113144088.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650477820257876.csv</t>
+          <t>ZB-match_7-16509961090582466.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504778211318781.csv</t>
+          <t>TB-16509961104984162.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504778209969108.csv</t>
+          <t>ZB-match_1-16509961087382088.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16504778202096612.csv</t>
+          <t>OB-16509961095383804.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504778200026975.csv</t>
+          <t>TB-16509961105383778.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16504778197316608.csv</t>
+          <t>OB-16509961096423776.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778212558823.csv</t>
+          <t>MM_stims-16509961113463814.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778212438774.csv</t>
+          <t>ZM_stims-16509961113303747.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778212719107.csv</t>
+          <t>MM_stims-16509961113624089.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778212568784.csv</t>
+          <t>ZM_stims-16509961113463814.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778212879114.csv</t>
+          <t>MM_stims-16509961113783798.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778212728767.csv</t>
+          <t>ZM_stims-16509961113624089.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778213528774.csv</t>
+          <t>SAT_stims-16509961113783798.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778213358777.csv</t>
+          <t>SAT_stims-16509961113944252.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778212958808.csv</t>
+          <t>vSAT_stims-16509961114104087.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778213199117.csv</t>
+          <t>vSAT_stims-16509961114264095.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_task_orders.xlsx
+++ b/participants/participant_19/participant_19_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961086022134" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961113303747" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961113303747" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961113783798" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650996111442379" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687042964354" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687083751464" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168708377116" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687084401152" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687085341108" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996108570213.csv</t>
+          <t>go_stims-16511687042684026.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996108586251.csv</t>
+          <t>GNG_stims-16511687042794397.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996108586251.csv</t>
+          <t>go_stims-16511687042804015.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961086022134.csv</t>
+          <t>GNG_stims-16511687042954304.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509961087622132.csv</t>
+          <t>TB-16511687079928901.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509961094023752.csv</t>
+          <t>ZB-match_5-16511687043364024.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509961113144088.csv</t>
+          <t>ZB-match_0-16511687044504454.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509961090582466.csv</t>
+          <t>TB-16511687052346437.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961104984162.csv</t>
+          <t>OB-16511687048014007.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961087382088.csv</t>
+          <t>OB-16511687046713982.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961095383804.csv</t>
+          <t>ZB-match_0-16511687046404355.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509961105383778.csv</t>
+          <t>OB-1651168704757401.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961096423776.csv</t>
+          <t>TB-16511687083531144.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961113463814.csv</t>
+          <t>MM_stims-16511687083911135.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961113303747.csv</t>
+          <t>ZM_stims-16511687083791122.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961113624089.csv</t>
+          <t>MM_stims-16511687084231167.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961113463814.csv</t>
+          <t>ZM_stims-16511687083921113.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961113783798.csv</t>
+          <t>MM_stims-16511687084391499.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961113624089.csv</t>
+          <t>ZM_stims-16511687084241102.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961113783798.csv</t>
+          <t>vSAT_stims-16511687085181093.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961113944252.csv</t>
+          <t>SAT_stims-16511687084721174.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961114104087.csv</t>
+          <t>SAT_stims-16511687084451208.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961114264095.csv</t>
+          <t>vSAT_stims-16511687084861488.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_task_orders.xlsx
+++ b/participants/participant_19/participant_19_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687042964354" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687083751464" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168708377116" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687084401152" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687085341108" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555322461243" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555342232397" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555342282357" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555342862492" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255534365279" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687042684026.csv</t>
+          <t>go_stims-16512555322131228.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687042794397.csv</t>
+          <t>GNG_stims-16512555322301235.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687042804015.csv</t>
+          <t>go_stims-16512555322311242.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687042954304.csv</t>
+          <t>GNG_stims-16512555322451239.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687079928901.csv</t>
+          <t>ZB-match_9-16512555332562358.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511687043364024.csv</t>
+          <t>OB-16512555338292365.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687044504454.csv</t>
+          <t>TB-1651255534208235.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16511687052346437.csv</t>
+          <t>ZB-match_7-16512555335112388.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511687048014007.csv</t>
+          <t>OB-16512555336142378.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687046713982.csv</t>
+          <t>ZB-match_7-1651255533228235.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687046404355.csv</t>
+          <t>OB-16512555339962366.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1651168704757401.csv</t>
+          <t>TB-16512555340502384.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687083531144.csv</t>
+          <t>TB-16512555340812376.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687083911135.csv</t>
+          <t>MM_stims-16512555342542365.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687083791122.csv</t>
+          <t>ZM_stims-1651255534231239.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687084231167.csv</t>
+          <t>MM_stims-1651255534270236.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687083921113.csv</t>
+          <t>ZM_stims-16512555342552369.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687084391499.csv</t>
+          <t>MM_stims-16512555342852361.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687084241102.csv</t>
+          <t>ZM_stims-16512555342722452.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687085181093.csv</t>
+          <t>SAT_stims-16512555342902408.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687084721174.csv</t>
+          <t>vSAT_stims-16512555343332355.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687084451208.csv</t>
+          <t>vSAT_stims-1651255534349236.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687084861488.csv</t>
+          <t>SAT_stims-16512555343182375.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_19/participant_19_task_orders.xlsx
+++ b/participants/participant_19/participant_19_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555322461243" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555342232397" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555342282357" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555342862492" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255534365279" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-16515889667478743" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-16515889667974896" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-16515889668327491" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889668348305" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651588966908666" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555322131228.csv</t>
+          <t>OB-16515889656128066.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555322301235.csv</t>
+          <t>TB-16515889662042787.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555322311242.csv</t>
+          <t>ZB-match_4-16515889642047777.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555322451239.csv</t>
+          <t>TB-16515889667293346.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OB-1651588964895019.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_9-16515889645777974.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515889658970485.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_4-16515889643906515.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OB-1651588965672083.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555332562358.csv</t>
+          <t>MM_stims-16515889667638173.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555338292365.csv</t>
+          <t>ZM_stims-16515889667510111.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651255534208235.csv</t>
+          <t>MM_stims-16515889667811732.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16512555335112388.csv</t>
+          <t>ZM_stims-16515889667648628.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512555336142378.csv</t>
+          <t>MM_stims-16515889667965233.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_7-1651255533228235.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>OB-16512555339962366.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-16512555340502384.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TB-16512555340812376.csv</t>
+          <t>ZM_stims-1651588966782172.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515889668011746.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651588966815421.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-1651588966817431.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515889668307655.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -632,7 +718,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,93 +728,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555342542365.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255534231239.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255534270236.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555342552369.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555342852361.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555342722452.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555342902408.csv</t>
+          <t>vSAT_stims-1651588966877771.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555343332355.csv</t>
+          <t>SAT_stims-16515889668621376.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255534349236.csv</t>
+          <t>vSAT_stims-16515889668928313.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555343182375.csv</t>
+          <t>SAT_stims-1651588966839484.csv</t>
         </is>
       </c>
     </row>
